--- a/docs/user_stories_ps_team_2.xlsx
+++ b/docs/user_stories_ps_team_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnathan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johna\OneDrive\Documents\PersonalStuff\SoftwareEngineeringProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFFE305-84C5-49ED-88A1-2B0F200174DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C060D1B-C330-4A08-A9FE-DE698307CECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="12" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="136">
   <si>
     <t>Title</t>
   </si>
@@ -1067,7 +1067,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1139,9 @@
         <v>34</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
@@ -1162,7 +1164,9 @@
         <v>47</v>
       </c>
       <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="H5" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
@@ -1187,7 +1191,9 @@
       <c r="G6" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
@@ -1212,7 +1218,9 @@
       <c r="G7" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
     </row>
@@ -1237,7 +1245,9 @@
       <c r="G8" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
     </row>
@@ -1262,7 +1272,9 @@
       <c r="G9" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
     </row>
@@ -1287,7 +1299,9 @@
       <c r="G10" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
@@ -1312,7 +1326,9 @@
       <c r="G11" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
@@ -1337,7 +1353,9 @@
       <c r="G12" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
     </row>
@@ -1362,7 +1380,9 @@
       <c r="G13" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
@@ -1764,11 +1784,11 @@
       </c>
       <c r="H31">
         <f>COUNTA(Table242[Code])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I31">
         <f>COUNTA(Table242[Code])</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1777,11 +1797,11 @@
       </c>
       <c r="H32">
         <f>COUNTIF(Table242[Code],"C")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I32">
         <f>COUNTIF(Table242[Code],"C")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.25">
@@ -1790,11 +1810,11 @@
       </c>
       <c r="H33">
         <f>COUNTIF(Table242[Code],"~")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <f>COUNTIF(Table242[Code],"~")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.25">
@@ -1803,11 +1823,11 @@
       </c>
       <c r="H34">
         <f>COUNTBLANK(Table242[Code])</f>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I34">
         <f>COUNTBLANK(Table242[Code])</f>
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.25">
@@ -1828,12 +1848,12 @@
         <v>42</v>
       </c>
       <c r="H36" s="19">
-        <f t="shared" ref="H36:I40" si="1">H31/H$35</f>
-        <v>0</v>
+        <f>H31/H$35</f>
+        <v>0.38461538461538464</v>
       </c>
       <c r="I36" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>I31/I$35</f>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.25">
@@ -1841,12 +1861,12 @@
         <v>43</v>
       </c>
       <c r="H37" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="H36:I40" si="1">H32/H$35</f>
+        <v>0.30769230769230771</v>
       </c>
       <c r="I37" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.30769230769230771</v>
       </c>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.25">
@@ -1855,11 +1875,11 @@
       </c>
       <c r="H38" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="I38" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.25">
@@ -1868,11 +1888,11 @@
       </c>
       <c r="H39" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="I39" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.25">
